--- a/public/data/profit/profit_table_botswana.xlsx
+++ b/public/data/profit/profit_table_botswana.xlsx
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.82</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-11.73</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-7.05</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-7.41</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-3.01</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2629,19 +2629,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.85</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-4.14</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-3.86</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-4.09</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2709,19 +2709,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-14.85</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-37.62</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-37.53</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-37.54</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-8.88</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-12.18</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-8.43</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>32.68</v>
+        <v>132.53</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -3029,19 +3029,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-4.52</v>
+        <v>49.6</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-6.8</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>-21.46</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>-21.6</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-2.34</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-3.77</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-6.38</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-11.1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-4.53</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
